--- a/src/test/resources/testdata/DsAlgoTestData.xlsx
+++ b/src/test/resources/testdata/DsAlgoTestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6DBCDBCE-000A-4FF1-8D8D-0D9BE40A355A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BDEF838A-3373-46A9-8D8F-6756FCE5F201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{88084FDB-07B4-43F9-97AE-E9C738A52C76}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="LoginUsernamePassword" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:L7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -488,7 +488,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/src/test/resources/testdata/DsAlgoTestData.xlsx
+++ b/src/test/resources/testdata/DsAlgoTestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BDEF838A-3373-46A9-8D8F-6756FCE5F201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E638B057-31BE-4142-88B4-27928E160D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{88084FDB-07B4-43F9-97AE-E9C738A52C76}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
   <si>
     <t>dsalgoteam</t>
   </si>
@@ -488,7 +488,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -553,6 +553,27 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="9" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="B9" s="2"/>
     </row>
